--- a/web/files/TestCases.xlsx
+++ b/web/files/TestCases.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -54,6 +54,63 @@
   </si>
   <si>
     <t xml:space="preserve"> Administrator - Selecting preferred language on the web-portal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the administrator selects english as a new language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  the web-portal will show all text in english</t>
+  </si>
+  <si>
+    <t>Select English as preferred language</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the administrator selects french as a new language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  the web-portal will show all text in french</t>
+  </si>
+  <si>
+    <t>Select French as preferred language</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the administrator selects swedish as a new language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  the web-portal will show all text in swedish</t>
+  </si>
+  <si>
+    <t>Select Swedish as preferred language</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in order to keep track of the restaurant owners an administrator should be able to manage the restaurant owners  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the administrator is logged in</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the administrator deletes an existing restaurant owner</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the restaurant owner should be deleted</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the restaurant information should be deleted</t>
+  </si>
+  <si>
+    <t>Delete an existing restaurant owner</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manage restaurant owners</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the administrator creates a new restaurant owner</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the new restaurant owner should be added</t>
+  </si>
+  <si>
+    <t>Add a new restaurant owner</t>
   </si>
 </sst>
 </file>
@@ -108,7 +165,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -117,7 +174,7 @@
     <col min="1" max="1" width="8.25390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="14.65625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="6.546875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="50.42578125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="50.44921875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="109.90625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -199,10 +256,336 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="B2:B6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:B32"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/web/files/TestCases.xlsx
+++ b/web/files/TestCases.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="41">
   <si>
     <t>Name</t>
   </si>
@@ -111,6 +111,30 @@
   </si>
   <si>
     <t>Add a new restaurant owner</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the administrator edits an existing restaurant owner</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the restaurant owner information should be updated</t>
+  </si>
+  <si>
+    <t>Edit an existing restaurant owner</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in order to keep track of the users an administrator should be able to manage the users  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the administrator deletes an existing user</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the user should be deleted</t>
+  </si>
+  <si>
+    <t>Delete/Inactivate an existing user</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manage users</t>
   </si>
 </sst>
 </file>
@@ -165,7 +189,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -572,6 +596,128 @@
         <v>11</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A2:A6"/>
@@ -586,6 +732,10 @@
     <mergeCell ref="B22:B27"/>
     <mergeCell ref="A28:A32"/>
     <mergeCell ref="B28:B32"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="B38:B42"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/web/files/TestCases.xlsx
+++ b/web/files/TestCases.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -135,6 +135,54 @@
   </si>
   <si>
     <t xml:space="preserve"> Manage users</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the administrator edits an existing user</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the user information should be updated</t>
+  </si>
+  <si>
+    <t>Edit an existing user’s information</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in order to manage restaurant information  an administrator should be logged in to the web-portal  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the administrator adds restaurant information</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the information should be added to the restaurant</t>
+  </si>
+  <si>
+    <t>Add restaurant information</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manage restaurant information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  information about a restaurant exists</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the administrator edits the information</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the information about the restaurant should be edited</t>
+  </si>
+  <si>
+    <t>Edit restaurant information</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> information about a restaurant exists</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the administrator deletes the information</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the information about the restaurant should be deleted</t>
+  </si>
+  <si>
+    <t>Delete restaurant information</t>
   </si>
 </sst>
 </file>
@@ -189,7 +237,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -198,7 +246,7 @@
     <col min="1" max="1" width="8.25390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="14.65625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="6.546875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="50.44921875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="51.34375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="109.90625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -715,6 +763,272 @@
         <v>11</v>
       </c>
       <c r="E42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>49</v>
+      </c>
+      <c r="E55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>50</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>51</v>
+      </c>
+      <c r="E57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" t="s">
+        <v>48</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>53</v>
+      </c>
+      <c r="E61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>54</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>55</v>
+      </c>
+      <c r="E63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" t="s">
         <v>11</v>
       </c>
     </row>
@@ -736,6 +1050,14 @@
     <mergeCell ref="B33:B37"/>
     <mergeCell ref="A38:A42"/>
     <mergeCell ref="B38:B42"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="B59:B64"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
